--- a/GGFPortal/VN/Temp/Excel/Sample品檢.xlsx
+++ b/GGFPortal/VN/Temp/Excel/Sample品檢.xlsx
@@ -77,131 +77,120 @@
     <t>.宁平各部門產量報表 Báo Biểu Sản Lượng Trong Ngày Của Các Bộ Phận</t>
   </si>
   <si>
-    <t>部門</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">客户 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>款號</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單數量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 组生产量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>訂單交期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">上線日期  </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1人8H標準產量 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際工作人數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工時</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>總工時</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日目標產量 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日產量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>前一天</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 累計量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>正負數量</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">組各別效率    </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">組效率    </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>返修率</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>部門
+Bộ Phận</t>
+  </si>
+  <si>
+    <t>客户 
+Khách Hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">款號
+Mã Hàng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">訂單數量
+SL đơn hàng </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 组生产量
+sản lượng tổ</t>
+  </si>
+  <si>
+    <t>訂單交期
+Ngày giao hàng</t>
+  </si>
+  <si>
+    <t>上線日期  
+Ngày
+lên chuyền</t>
+  </si>
+  <si>
+    <t>1人8H標準產量 
+M.tiêu 1ng/8H</t>
+  </si>
+  <si>
+    <t>實際工作人數
+Số cn  làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工時
+Thời gian
+ làm việc </t>
+  </si>
+  <si>
+    <t>總工時
+tổng thời gian làm việc của cả tổ</t>
+  </si>
+  <si>
+    <t>百分比
+phần trăm</t>
+  </si>
+  <si>
+    <t>今日目標產量 
+SL Mụ tiêu ngày</t>
+  </si>
+  <si>
+    <t>今日產量
+Sản Lượng Ngày</t>
+  </si>
+  <si>
+    <t>前一天
+Tích luỹ trước 1 ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 累計量
+Sản lượng tích luỹ</t>
+  </si>
+  <si>
+    <t>正負數量
+Sản lượng  tích luỹ</t>
+  </si>
+  <si>
+    <t>組各別效率    
+hiệu quả của 1 mã hàng trong tổ</t>
+  </si>
+  <si>
+    <t>組效率    
+Tỉ Lệ Hiệu Suất %</t>
+  </si>
+  <si>
+    <t>返修率
+Tỉ lệ hàng sửa</t>
   </si>
   <si>
     <t xml:space="preserve">责任归属及上线天数 (文字備註)                             </t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>顏色</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日各組成本</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日生產成本/DZ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>工繳收入/DZ</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">今日工繳收入/DZ </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>今日生產損益 USD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CM-COST)/CM 損 益 %</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">今日各組成本
+giá thành các tổ </t>
+  </si>
+  <si>
+    <t>今日生產成本/DZ 
+giá thành SP/DZ</t>
+  </si>
+  <si>
+    <t>工繳收入/DZ
+Đơn giá bán/DZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">今日工繳收入/DZ 
+Doanh thu </t>
+  </si>
+  <si>
+    <t>今日生產損益 USD
+USD Lãi,lỗ</t>
+  </si>
+  <si>
+    <t>(CM-COST)/CM 損 益 %
+lãi lỗ</t>
   </si>
   <si>
     <t>損益累積</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -216,7 +205,7 @@
     <numFmt numFmtId="179" formatCode="\+0_ ;[Red]\-0"/>
     <numFmt numFmtId="180" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,12 +285,6 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -407,7 +390,7 @@
     <xf numFmtId="180" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,12 +705,12 @@
   <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A3" sqref="A3:AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75">
+    <row r="1" spans="1:29" s="3" customFormat="1" ht="36.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -756,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1">
+    <row r="2" spans="1:29" s="3" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
@@ -782,7 +765,7 @@
       <c r="U2" s="21"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:29" s="13" customFormat="1" ht="76.5" customHeight="1">
+    <row r="3" spans="1:29" s="13" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
@@ -817,58 +800,58 @@
         <v>13</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC3" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
